--- a/Unity/Assets/Config/Excel/AvocationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AvocationConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonsConfigProto" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -591,7 +609,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,34 +621,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,7 +734,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
@@ -727,23 +745,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1109,467 +1144,467 @@
     <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="12.125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <f>D5*100</f>
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <f>F5*50</f>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="13"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <f t="shared" ref="E6:E16" si="0">D6*100</f>
         <v>200</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="9">
         <f t="shared" ref="G6:G24" si="1">F6*50</f>
         <v>100</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="13"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="13"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="13"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>6</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="13"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="13"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>8</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="13"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>9</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>9</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="13"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="13"/>
-      <c r="D15" s="5">
+      <c r="B15" s="20"/>
+      <c r="D15" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>11</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="13"/>
-      <c r="D16" s="5">
+      <c r="B16" s="20"/>
+      <c r="D16" s="6">
         <v>12</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>12</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="9">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="13"/>
-      <c r="D17" s="5">
+      <c r="B17" s="20"/>
+      <c r="D17" s="6">
         <v>13</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <f t="shared" ref="E17:E24" si="2">D17*100</f>
         <v>1300</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>13</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="13"/>
-      <c r="D18" s="5">
+      <c r="B18" s="20"/>
+      <c r="D18" s="6">
         <v>14</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>14</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="9">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="13"/>
-      <c r="D19" s="5">
+      <c r="B19" s="20"/>
+      <c r="D19" s="6">
         <v>15</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>15</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="9">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="13"/>
-      <c r="D20" s="5">
+      <c r="B20" s="20"/>
+      <c r="D20" s="6">
         <v>16</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>16</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="13"/>
-      <c r="D21" s="5">
+      <c r="B21" s="20"/>
+      <c r="D21" s="6">
         <v>17</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>17</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="13"/>
-      <c r="D22" s="5">
+      <c r="B22" s="20"/>
+      <c r="D22" s="6">
         <v>18</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>18</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="9">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="13"/>
-      <c r="D23" s="5">
+      <c r="B23" s="20"/>
+      <c r="D23" s="6">
         <v>19</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>19</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="9">
         <f t="shared" si="1"/>
         <v>950</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="13"/>
-      <c r="D24" s="5">
+      <c r="B24" s="20"/>
+      <c r="D24" s="6">
         <v>20</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>20</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="9">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="13"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="13"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="13"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="13"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="13"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="13"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="13"/>
+      <c r="B34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
